--- a/Resources/2009/Advanced_Percentile_2009.xlsx
+++ b/Resources/2009/Advanced_Percentile_2009.xlsx
@@ -1402,7 +1402,7 @@
     <t>Dwyane Wade</t>
   </si>
   <si>
-    <t>Yao Ming*</t>
+    <t>Yao Ming</t>
   </si>
   <si>
     <t>Brandon Roy</t>
@@ -1417,7 +1417,7 @@
     <t>Danny Granger</t>
   </si>
   <si>
-    <t>Shaquille O'Neal*</t>
+    <t>Shaquille O'Neal</t>
   </si>
   <si>
     <t>Jameer Nelson</t>
@@ -1447,7 +1447,7 @@
     <t>Devin Harris</t>
   </si>
   <si>
-    <t>Ray Allen*</t>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>Chauncey Billups</t>
@@ -1501,7 +1501,7 @@
     <t>J.R. Giddens</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>Vince Carter</t>
@@ -1714,7 +1714,7 @@
     <t>Travis Outlaw</t>
   </si>
   <si>
-    <t>Grant Hill*</t>
+    <t>Grant Hill</t>
   </si>
   <si>
     <t>Trevor Ariza</t>
@@ -1726,7 +1726,7 @@
     <t>Corey Maggette</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Joel Przybilla</t>
@@ -1753,7 +1753,7 @@
     <t>Al Harrington</t>
   </si>
   <si>
-    <t>Tracy McGrady*</t>
+    <t>Tracy McGrady</t>
   </si>
   <si>
     <t>Nick Collison</t>
@@ -1846,7 +1846,7 @@
     <t>Rudy Gay</t>
   </si>
   <si>
-    <t>Allen Iverson*</t>
+    <t>Allen Iverson</t>
   </si>
   <si>
     <t>Rodney Stuckey</t>
@@ -2425,7 +2425,7 @@
     <t>Yi Jianlian</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Mario West</t>
